--- a/Test/xlsx/1.xlsx
+++ b/Test/xlsx/1.xlsx
@@ -255,356 +255,356 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -617,6 +617,22 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.0" customWidth="true"/>
+    <col min="2" max="2" width="24.0" customWidth="true"/>
+    <col min="14" max="14" width="17.0" customWidth="true"/>
+    <col min="3" max="3" width="17.0" customWidth="true"/>
+    <col min="4" max="4" width="17.0" customWidth="true"/>
+    <col min="5" max="5" width="17.0" customWidth="true"/>
+    <col min="6" max="6" width="17.0" customWidth="true"/>
+    <col min="7" max="7" width="17.0" customWidth="true"/>
+    <col min="8" max="8" width="17.0" customWidth="true"/>
+    <col min="9" max="9" width="17.0" customWidth="true"/>
+    <col min="10" max="10" width="17.0" customWidth="true"/>
+    <col min="11" max="11" width="17.0" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="17.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true">
       <c r="A1" s="2" t="s">

--- a/Test/xlsx/1.xlsx
+++ b/Test/xlsx/1.xlsx
@@ -214,7 +214,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="109">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -222,18 +222,445 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,329 +677,329 @@
   </cellStyleXfs>
   <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>

--- a/Test/xlsx/1.xlsx
+++ b/Test/xlsx/1.xlsx
@@ -675,11 +675,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -689,75 +695,120 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -800,6 +851,9 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -842,6 +896,9 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -884,6 +941,9 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -926,21 +986,36 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -953,6 +1028,9 @@
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -965,6 +1043,9 @@
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -977,6 +1058,9 @@
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -988,6 +1072,9 @@
     </xf>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
@@ -1029,385 +1116,385 @@
     <col min="13" max="13" width="17.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="true">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="true">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="7" customFormat="true">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="9" customFormat="true">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="11" customFormat="true">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="14" customFormat="true">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="17" customFormat="true">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="19" customFormat="true">
+      <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
+    <row r="9" s="22" customFormat="true">
+      <c r="A9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="16" t="s">
+    <row r="10" s="25" customFormat="true">
+      <c r="A10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="18" t="s">
+    <row r="11" s="28" customFormat="true">
+      <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
+    <row r="12" s="30" customFormat="true">
+      <c r="A12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="21" t="s">
+    <row r="13" s="33" customFormat="true">
+      <c r="A13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="23" t="s">
+    <row r="14" s="36" customFormat="true">
+      <c r="A14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="25" t="s">
+    <row r="15" s="39" customFormat="true">
+      <c r="A15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="27" t="s">
+    <row r="16" s="42" customFormat="true">
+      <c r="A16" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="28" t="s">
+    <row r="17" s="44" customFormat="true">
+      <c r="A17" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="40" t="s">
+      <c r="M17" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="N17" s="41" t="s">
+      <c r="N17" s="58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="42" t="s">
+    <row r="18" s="59" customFormat="true">
+      <c r="A18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="56" t="s">
+      <c r="J18" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" s="74" customFormat="true">
+      <c r="A19" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="65" t="s">
+      <c r="I19" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="68" t="s">
+      <c r="L19" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="69" t="s">
+      <c r="N19" s="88" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="70" t="s">
+    <row r="20" s="89" customFormat="true">
+      <c r="A20" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="78" t="s">
+      <c r="I20" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="79" t="s">
+      <c r="J20" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="80" t="s">
+      <c r="K20" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="82" t="s">
+      <c r="L20" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="83" t="s">
+      <c r="N20" s="103" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="84" t="s">
+    <row r="21" s="104" customFormat="true">
+      <c r="A21" s="105" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="85" t="s">
+    <row r="22" s="106" customFormat="true">
+      <c r="A22" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="86" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="88" t="s">
+    <row r="23" s="108" customFormat="true">
+      <c r="A23" s="109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" s="110" customFormat="true">
+      <c r="A24" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="112" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="90" t="s">
+    <row r="25" s="113" customFormat="true">
+      <c r="A25" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="92" t="s">
+      <c r="I25" s="117" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="94" t="s">
+    <row r="26" s="118" customFormat="true">
+      <c r="A26" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="96" t="s">
+      <c r="I26" s="122" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="98" t="s">
+    <row r="27" s="123" customFormat="true">
+      <c r="A27" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="99" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="100" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="102" t="s">
+      <c r="D27" s="126" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" s="128" customFormat="true">
+      <c r="A28" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="104" t="s">
+      <c r="I28" s="132" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="106" t="s">
+    <row r="29" s="133" customFormat="true">
+      <c r="A29" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="107" t="s">
+      <c r="D29" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="108" t="s">
+      <c r="I29" s="137" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Test/xlsx/1.xlsx
+++ b/Test/xlsx/1.xlsx
@@ -2574,739 +2574,739 @@
   </cellStyleXfs>
   <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
